--- a/BiDAF/result/character_combined_result.xlsx
+++ b/BiDAF/result/character_combined_result.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\BiDAF\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4933601C-05E8-480D-B50B-02604F26FD74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +101,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -161,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,234 +415,1269 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="E2">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="F2">
-        <v>7.18</v>
+        <v>6.66</v>
       </c>
       <c r="G2">
-        <v>6.59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="E3">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="F3">
-        <v>4.96</v>
+        <v>6.66</v>
       </c>
       <c r="G3">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.53</v>
+      </c>
+      <c r="E4">
+        <v>0.65</v>
+      </c>
+      <c r="F4">
+        <v>4.32</v>
+      </c>
+      <c r="G4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.41</v>
+      </c>
+      <c r="E5">
+        <v>0.53</v>
+      </c>
+      <c r="F5">
+        <v>6.66</v>
+      </c>
+      <c r="G5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.53</v>
+      </c>
+      <c r="E6">
+        <v>0.65</v>
+      </c>
+      <c r="F6">
+        <v>4.32</v>
+      </c>
+      <c r="G6">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>0.53</v>
-      </c>
-      <c r="E4">
-        <v>0.66</v>
-      </c>
-      <c r="F4">
-        <v>3.89</v>
-      </c>
-      <c r="G4">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="D7">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.68</v>
+      </c>
+      <c r="F7">
+        <v>3.75</v>
+      </c>
+      <c r="G7">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.41</v>
+      </c>
+      <c r="E8">
+        <v>0.53</v>
+      </c>
+      <c r="F8">
+        <v>6.66</v>
+      </c>
+      <c r="G8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.53</v>
+      </c>
+      <c r="E9">
+        <v>0.65</v>
+      </c>
+      <c r="F9">
+        <v>4.32</v>
+      </c>
+      <c r="G9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>64</v>
-      </c>
-      <c r="C5">
+      <c r="D10">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.68</v>
+      </c>
+      <c r="F10">
+        <v>3.75</v>
+      </c>
+      <c r="G10">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E5">
-        <v>0.69</v>
-      </c>
-      <c r="F5">
-        <v>3.52</v>
-      </c>
-      <c r="G5">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="D11">
+        <v>0.58</v>
+      </c>
+      <c r="E11">
+        <v>0.71</v>
+      </c>
+      <c r="F11">
+        <v>3.48</v>
+      </c>
+      <c r="G11">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.41</v>
+      </c>
+      <c r="E12">
+        <v>0.53</v>
+      </c>
+      <c r="F12">
+        <v>6.66</v>
+      </c>
+      <c r="G12">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0.53</v>
+      </c>
+      <c r="E13">
+        <v>0.65</v>
+      </c>
+      <c r="F13">
+        <v>4.32</v>
+      </c>
+      <c r="G13">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.68</v>
+      </c>
+      <c r="F14">
+        <v>3.75</v>
+      </c>
+      <c r="G14">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>64</v>
-      </c>
-      <c r="C6">
+      <c r="D15">
+        <v>0.58</v>
+      </c>
+      <c r="E15">
+        <v>0.71</v>
+      </c>
+      <c r="F15">
+        <v>3.48</v>
+      </c>
+      <c r="G15">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D16">
         <v>0.6</v>
       </c>
-      <c r="E6">
+      <c r="E16">
         <v>0.72</v>
       </c>
-      <c r="F6">
-        <v>3.29</v>
-      </c>
-      <c r="G6">
+      <c r="F16">
+        <v>3.3</v>
+      </c>
+      <c r="G16">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.41</v>
+      </c>
+      <c r="E17">
+        <v>0.53</v>
+      </c>
+      <c r="F17">
+        <v>6.66</v>
+      </c>
+      <c r="G17">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0.53</v>
+      </c>
+      <c r="E18">
+        <v>0.65</v>
+      </c>
+      <c r="F18">
+        <v>4.32</v>
+      </c>
+      <c r="G18">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.68</v>
+      </c>
+      <c r="F19">
+        <v>3.75</v>
+      </c>
+      <c r="G19">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0.58</v>
+      </c>
+      <c r="E20">
+        <v>0.71</v>
+      </c>
+      <c r="F20">
+        <v>3.48</v>
+      </c>
+      <c r="G20">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0.6</v>
+      </c>
+      <c r="E21">
+        <v>0.72</v>
+      </c>
+      <c r="F21">
+        <v>3.3</v>
+      </c>
+      <c r="G21">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>0.61</v>
+      </c>
+      <c r="E22">
+        <v>0.72</v>
+      </c>
+      <c r="F22">
+        <v>3.15</v>
+      </c>
+      <c r="G22">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.41</v>
+      </c>
+      <c r="E23">
+        <v>0.53</v>
+      </c>
+      <c r="F23">
+        <v>6.66</v>
+      </c>
+      <c r="G23">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0.53</v>
+      </c>
+      <c r="E24">
+        <v>0.65</v>
+      </c>
+      <c r="F24">
+        <v>4.32</v>
+      </c>
+      <c r="G24">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.68</v>
+      </c>
+      <c r="F25">
+        <v>3.75</v>
+      </c>
+      <c r="G25">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0.58</v>
+      </c>
+      <c r="E26">
+        <v>0.71</v>
+      </c>
+      <c r="F26">
+        <v>3.48</v>
+      </c>
+      <c r="G26">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>0.6</v>
+      </c>
+      <c r="E27">
+        <v>0.72</v>
+      </c>
+      <c r="F27">
+        <v>3.3</v>
+      </c>
+      <c r="G27">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0.61</v>
+      </c>
+      <c r="E28">
+        <v>0.72</v>
+      </c>
+      <c r="F28">
+        <v>3.15</v>
+      </c>
+      <c r="G28">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>0.61</v>
+      </c>
+      <c r="E29">
+        <v>0.72</v>
+      </c>
+      <c r="F29">
+        <v>3.05</v>
+      </c>
+      <c r="G29">
         <v>3.32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.41</v>
+      </c>
+      <c r="E30">
+        <v>0.53</v>
+      </c>
+      <c r="F30">
+        <v>6.66</v>
+      </c>
+      <c r="G30">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0.53</v>
+      </c>
+      <c r="E31">
+        <v>0.65</v>
+      </c>
+      <c r="F31">
+        <v>4.32</v>
+      </c>
+      <c r="G31">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.68</v>
+      </c>
+      <c r="F32">
+        <v>3.75</v>
+      </c>
+      <c r="G32">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.58</v>
+      </c>
+      <c r="E33">
+        <v>0.71</v>
+      </c>
+      <c r="F33">
+        <v>3.48</v>
+      </c>
+      <c r="G33">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>64</v>
-      </c>
-      <c r="C7">
+      <c r="D34">
+        <v>0.6</v>
+      </c>
+      <c r="E34">
+        <v>0.72</v>
+      </c>
+      <c r="F34">
+        <v>3.3</v>
+      </c>
+      <c r="G34">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D35">
         <v>0.61</v>
       </c>
-      <c r="E7">
+      <c r="E35">
         <v>0.72</v>
       </c>
-      <c r="F7">
-        <v>3.13</v>
-      </c>
-      <c r="G7">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="F35">
+        <v>3.15</v>
+      </c>
+      <c r="G35">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>64</v>
-      </c>
-      <c r="C8">
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>0.62</v>
-      </c>
-      <c r="E8">
-        <v>0.73</v>
-      </c>
-      <c r="F8">
+      <c r="D36">
+        <v>0.61</v>
+      </c>
+      <c r="E36">
+        <v>0.72</v>
+      </c>
+      <c r="F36">
+        <v>3.05</v>
+      </c>
+      <c r="G36">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>0.63</v>
+      </c>
+      <c r="E37">
+        <v>0.74</v>
+      </c>
+      <c r="F37">
+        <v>2.96</v>
+      </c>
+      <c r="G37">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.41</v>
+      </c>
+      <c r="E38">
+        <v>0.53</v>
+      </c>
+      <c r="F38">
+        <v>6.66</v>
+      </c>
+      <c r="G38">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0.53</v>
+      </c>
+      <c r="E39">
+        <v>0.65</v>
+      </c>
+      <c r="F39">
+        <v>4.32</v>
+      </c>
+      <c r="G39">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="D40">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.68</v>
+      </c>
+      <c r="F40">
+        <v>3.75</v>
+      </c>
+      <c r="G40">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>0.58</v>
+      </c>
+      <c r="E41">
+        <v>0.71</v>
+      </c>
+      <c r="F41">
+        <v>3.48</v>
+      </c>
+      <c r="G41">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>32</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>0.6</v>
+      </c>
+      <c r="E42">
+        <v>0.72</v>
+      </c>
+      <c r="F42">
+        <v>3.3</v>
+      </c>
+      <c r="G42">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>0.61</v>
+      </c>
+      <c r="E43">
+        <v>0.72</v>
+      </c>
+      <c r="F43">
+        <v>3.15</v>
+      </c>
+      <c r="G43">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>32</v>
+      </c>
+      <c r="C44">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>64</v>
-      </c>
-      <c r="C9">
+      <c r="D44">
+        <v>0.61</v>
+      </c>
+      <c r="E44">
+        <v>0.72</v>
+      </c>
+      <c r="F44">
+        <v>3.05</v>
+      </c>
+      <c r="G44">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>32</v>
+      </c>
+      <c r="C45">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>0.62</v>
-      </c>
-      <c r="E9">
+      <c r="D45">
+        <v>0.63</v>
+      </c>
+      <c r="E45">
         <v>0.74</v>
       </c>
-      <c r="F9">
-        <v>2.89</v>
-      </c>
-      <c r="G9">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="F45">
+        <v>2.96</v>
+      </c>
+      <c r="G45">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>64</v>
-      </c>
-      <c r="C10">
+      <c r="B46">
+        <v>32</v>
+      </c>
+      <c r="C46">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D46">
         <v>0.63</v>
       </c>
-      <c r="E10">
+      <c r="E46">
         <v>0.74</v>
       </c>
-      <c r="F10">
-        <v>2.79</v>
-      </c>
-      <c r="G10">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="F46">
+        <v>2.88</v>
+      </c>
+      <c r="G46">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.41</v>
+      </c>
+      <c r="E47">
+        <v>0.53</v>
+      </c>
+      <c r="F47">
+        <v>6.66</v>
+      </c>
+      <c r="G47">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>0.53</v>
+      </c>
+      <c r="E48">
+        <v>0.65</v>
+      </c>
+      <c r="F48">
+        <v>4.32</v>
+      </c>
+      <c r="G48">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>32</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E49">
+        <v>0.68</v>
+      </c>
+      <c r="F49">
+        <v>3.75</v>
+      </c>
+      <c r="G49">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>0.58</v>
+      </c>
+      <c r="E50">
+        <v>0.71</v>
+      </c>
+      <c r="F50">
+        <v>3.48</v>
+      </c>
+      <c r="G50">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>0.6</v>
+      </c>
+      <c r="E51">
+        <v>0.72</v>
+      </c>
+      <c r="F51">
+        <v>3.3</v>
+      </c>
+      <c r="G51">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>0.61</v>
+      </c>
+      <c r="E52">
+        <v>0.72</v>
+      </c>
+      <c r="F52">
+        <v>3.15</v>
+      </c>
+      <c r="G52">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>32</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>0.61</v>
+      </c>
+      <c r="E53">
+        <v>0.72</v>
+      </c>
+      <c r="F53">
+        <v>3.05</v>
+      </c>
+      <c r="G53">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>32</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>0.63</v>
+      </c>
+      <c r="E54">
+        <v>0.74</v>
+      </c>
+      <c r="F54">
+        <v>2.96</v>
+      </c>
+      <c r="G54">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>32</v>
+      </c>
+      <c r="C55">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>64</v>
-      </c>
-      <c r="C11">
+      <c r="D55">
+        <v>0.63</v>
+      </c>
+      <c r="E55">
+        <v>0.74</v>
+      </c>
+      <c r="F55">
+        <v>2.88</v>
+      </c>
+      <c r="G55">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>32</v>
+      </c>
+      <c r="C56">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D56">
         <v>0.64</v>
       </c>
-      <c r="E11">
-        <v>0.75</v>
-      </c>
-      <c r="F11">
-        <v>2.7</v>
-      </c>
-      <c r="G11">
-        <v>3.14</v>
+      <c r="E56">
+        <v>0.74</v>
+      </c>
+      <c r="F56">
+        <v>2.81</v>
+      </c>
+      <c r="G56">
+        <v>3.16</v>
       </c>
     </row>
   </sheetData>

--- a/BiDAF/result/character_combined_result.xlsx
+++ b/BiDAF/result/character_combined_result.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\BiDAF\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E92A61-F416-41B6-B0E3-931E510C626B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +101,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -161,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,234 +415,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>0.32</v>
+        <v>0.62</v>
       </c>
       <c r="E2">
-        <v>0.45</v>
+        <v>0.73</v>
       </c>
       <c r="F2">
-        <v>6.79</v>
+        <v>2.77</v>
       </c>
       <c r="G2">
-        <v>5.46</v>
+        <v>3.23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="E3">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="F3">
-        <v>4.4400000000000004</v>
+        <v>2.66</v>
       </c>
       <c r="G3">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E4">
-        <v>0.69</v>
-      </c>
-      <c r="F4">
-        <v>3.7</v>
-      </c>
-      <c r="G4">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>0.59</v>
-      </c>
-      <c r="E5">
-        <v>0.7</v>
-      </c>
-      <c r="F5">
-        <v>3.4</v>
-      </c>
-      <c r="G5">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.59</v>
-      </c>
-      <c r="E6">
-        <v>0.72</v>
-      </c>
-      <c r="F6">
         <v>3.22</v>
-      </c>
-      <c r="G6">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>0.61</v>
-      </c>
-      <c r="E7">
-        <v>0.73</v>
-      </c>
-      <c r="F7">
-        <v>3.08</v>
-      </c>
-      <c r="G7">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>0.61</v>
-      </c>
-      <c r="E8">
-        <v>0.73</v>
-      </c>
-      <c r="F8">
-        <v>2.96</v>
-      </c>
-      <c r="G8">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>0.62</v>
-      </c>
-      <c r="E9">
-        <v>0.74</v>
-      </c>
-      <c r="F9">
-        <v>2.88</v>
-      </c>
-      <c r="G9">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>0.63</v>
-      </c>
-      <c r="E10">
-        <v>0.74</v>
-      </c>
-      <c r="F10">
-        <v>2.81</v>
-      </c>
-      <c r="G10">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0.63</v>
-      </c>
-      <c r="E11">
-        <v>0.75</v>
-      </c>
-      <c r="F11">
-        <v>2.73</v>
-      </c>
-      <c r="G11">
-        <v>3.14</v>
       </c>
     </row>
   </sheetData>

--- a/BiDAF/result/character_combined_result.xlsx
+++ b/BiDAF/result/character_combined_result.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\BiDAF\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BBB843-2EF2-466A-BBEC-8275965F5E6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -37,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +107,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -147,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +193,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +245,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,14 +438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -423,22 +475,22 @@
         <v>64</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.62</v>
+        <v>0.22</v>
       </c>
       <c r="E2">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="F2">
-        <v>2.77</v>
+        <v>7.19</v>
       </c>
       <c r="G2">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -446,19 +498,203 @@
         <v>64</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0.48</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>5.18</v>
+      </c>
+      <c r="G3">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.53</v>
+      </c>
+      <c r="E4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F4">
+        <v>3.94</v>
+      </c>
+      <c r="G4">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.69</v>
+      </c>
+      <c r="F5">
+        <v>3.41</v>
+      </c>
+      <c r="G5">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.59</v>
+      </c>
+      <c r="E6">
+        <v>0.71</v>
+      </c>
+      <c r="F6">
+        <v>3.3</v>
+      </c>
+      <c r="G6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0.61</v>
+      </c>
+      <c r="E7">
+        <v>0.72</v>
+      </c>
+      <c r="F7">
+        <v>3.13</v>
+      </c>
+      <c r="G7">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0.62</v>
+      </c>
+      <c r="E8">
+        <v>0.73</v>
+      </c>
+      <c r="F8">
+        <v>2.99</v>
+      </c>
+      <c r="G8">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0.63</v>
+      </c>
+      <c r="E9">
+        <v>0.74</v>
+      </c>
+      <c r="F9">
+        <v>2.87</v>
+      </c>
+      <c r="G9">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0.63</v>
+      </c>
+      <c r="E10">
+        <v>0.74</v>
+      </c>
+      <c r="F10">
+        <v>2.77</v>
+      </c>
+      <c r="G10">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>64</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>0.63</v>
-      </c>
-      <c r="E3">
-        <v>0.74</v>
-      </c>
-      <c r="F3">
-        <v>2.66</v>
-      </c>
-      <c r="G3">
-        <v>3.22</v>
+      <c r="D11">
+        <v>0.61</v>
+      </c>
+      <c r="E11">
+        <v>0.72</v>
+      </c>
+      <c r="F11">
+        <v>2.67</v>
+      </c>
+      <c r="G11">
+        <v>3.32</v>
       </c>
     </row>
   </sheetData>

--- a/BiDAF/result/character_combined_result.xlsx
+++ b/BiDAF/result/character_combined_result.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\BiDAF\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BBB843-2EF2-466A-BBEC-8275965F5E6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Batch_Size</t>
   </si>
@@ -43,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -161,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,27 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,235 +417,498 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>64</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.22</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.33</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7.19</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6.56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>64</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.48</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5.18</v>
       </c>
-      <c r="G3">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>64</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.53</v>
       </c>
-      <c r="E4">
-        <v>0.56000000000000005</v>
-      </c>
       <c r="F4">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G4">
         <v>3.94</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3.73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>64</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>0.56999999999999995</v>
-      </c>
       <c r="E5">
-        <v>0.69</v>
+        <v>0.57</v>
       </c>
       <c r="F5">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G5">
         <v>3.41</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>64</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.59</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.71</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3.3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>64</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.61</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.72</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.13</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3.28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>64</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.62</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.73</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.99</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>64</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.63</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.74</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.87</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3.18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>64</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.63</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.74</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.77</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>64</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.61</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.72</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2.67</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.29</v>
+      </c>
+      <c r="F12">
+        <v>0.42</v>
+      </c>
+      <c r="G12">
+        <v>6.78</v>
+      </c>
+      <c r="H12">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0.53</v>
+      </c>
+      <c r="F13">
+        <v>0.65</v>
+      </c>
+      <c r="G13">
+        <v>4.54</v>
+      </c>
+      <c r="H13">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0.57</v>
+      </c>
+      <c r="F14">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G14">
+        <v>3.71</v>
+      </c>
+      <c r="H14">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0.59</v>
+      </c>
+      <c r="F15">
+        <v>0.7</v>
+      </c>
+      <c r="G15">
+        <v>3.4</v>
+      </c>
+      <c r="H15">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0.61</v>
+      </c>
+      <c r="F16">
+        <v>0.72</v>
+      </c>
+      <c r="G16">
+        <v>3.2</v>
+      </c>
+      <c r="H16">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>0.61</v>
+      </c>
+      <c r="F17">
+        <v>0.73</v>
+      </c>
+      <c r="G17">
+        <v>3.06</v>
+      </c>
+      <c r="H17">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0.62</v>
+      </c>
+      <c r="F18">
+        <v>0.74</v>
+      </c>
+      <c r="G18">
+        <v>2.96</v>
+      </c>
+      <c r="H18">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>0.63</v>
+      </c>
+      <c r="F19">
+        <v>0.74</v>
+      </c>
+      <c r="G19">
+        <v>2.88</v>
+      </c>
+      <c r="H19">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>0.63</v>
+      </c>
+      <c r="F20">
+        <v>0.74</v>
+      </c>
+      <c r="G20">
+        <v>2.79</v>
+      </c>
+      <c r="H20">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>0.63</v>
+      </c>
+      <c r="F21">
+        <v>0.75</v>
+      </c>
+      <c r="G21">
+        <v>2.72</v>
+      </c>
+      <c r="H21">
+        <v>3.09</v>
       </c>
     </row>
   </sheetData>

--- a/BiDAF/result/character_combined_result.xlsx
+++ b/BiDAF/result/character_combined_result.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\BiDAF\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9A589A-9057-4E97-B1C7-5FA2B693C738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +110,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +196,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +248,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,14 +441,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,145 +473,127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F2">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="G2">
-        <v>7.19</v>
+        <v>6.78</v>
       </c>
       <c r="H2">
-        <v>6.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="F3">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="G3">
-        <v>5.18</v>
+        <v>4.54</v>
       </c>
       <c r="H3">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
       <c r="C4">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0.53</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F4">
-        <v>0.5600000000000001</v>
+        <v>0.69</v>
       </c>
       <c r="G4">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="H4">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="F5">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G5">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="H5">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="F6">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="G6">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H6">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
       <c r="C7">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -568,24 +602,21 @@
         <v>0.61</v>
       </c>
       <c r="F7">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="G7">
-        <v>3.13</v>
+        <v>3.06</v>
       </c>
       <c r="H7">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
       <c r="C8">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -594,24 +625,21 @@
         <v>0.62</v>
       </c>
       <c r="F8">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="G8">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
       <c r="C9">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -623,21 +651,18 @@
         <v>0.74</v>
       </c>
       <c r="G9">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="H9">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
       <c r="C10">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -649,159 +674,174 @@
         <v>0.74</v>
       </c>
       <c r="G10">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="H10">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
       <c r="C11">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="F11">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="G11">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="H11">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="F12">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="G12">
-        <v>6.78</v>
+        <v>7.19</v>
       </c>
       <c r="H12">
-        <v>5.77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="F13">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G13">
-        <v>4.54</v>
+        <v>5.18</v>
       </c>
       <c r="H13">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
       <c r="C14">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="F14">
-        <v>0.6899999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G14">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="H14">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>0.59</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F15">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="G15">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="H15">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>4</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="C16">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="F16">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="G16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H16">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="C17">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -810,21 +850,24 @@
         <v>0.61</v>
       </c>
       <c r="F17">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="G17">
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
       <c r="H17">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>6</v>
       </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
       <c r="C18">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -833,21 +876,24 @@
         <v>0.62</v>
       </c>
       <c r="F18">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="G18">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="H18">
-        <v>3.21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>7</v>
       </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
       <c r="C19">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -859,18 +905,21 @@
         <v>0.74</v>
       </c>
       <c r="G19">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="H19">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>8</v>
       </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
       <c r="C20">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>9</v>
@@ -882,33 +931,36 @@
         <v>0.74</v>
       </c>
       <c r="G20">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="H20">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>9</v>
       </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
       <c r="C21">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F21">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="G21">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="H21">
-        <v>3.09</v>
+        <v>3.32</v>
       </c>
     </row>
   </sheetData>
